--- a/medicine/Enfance/Sang_d'encre_(roman)/Sang_d'encre_(roman).xlsx
+++ b/medicine/Enfance/Sang_d'encre_(roman)/Sang_d'encre_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sang_d%27encre_(roman)</t>
+          <t>Sang_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sang d'encre (titre original : Tintenblut) est un roman allemand pour la jeunesse écrit par Cornelia Funke en 2005 et traduit en français en 2009. Il est également la suite de Cœur d'encre et le deuxième tome de sa trilogie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sang_d%27encre_(roman)</t>
+          <t>Sang_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé de l'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Meggie et ses parents savourent leurs retrouvailles lorsque Farid apporte une nouvelle bouleversante : prêt à tout pour revoir les fées et sa famille, Doigt de Poussière a regagné le Monde d'encre, ignorant qu'un grand danger l'attend. Farid et Meggie décident de partir à sa recherche.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sang_d%27encre_(roman)</t>
+          <t>Sang_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Meggie : elle est une langue magique, comme son père. Elle est amoureuse de Farid.
 Mortimer Folchart, surnommé Mo ou Langue Magique
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sang_d%27encre_(roman)</t>
+          <t>Sang_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornelia Funke, Sang d'encre, Gallimard, collection Hors-série littérature, 2 juillet 2009  (ISBN 978-2070622047).
 </t>
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sang_d%27encre_(roman)</t>
+          <t>Sang_d'encre_(roman)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>La trilogie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cœur d'encre
 Sang d'encre
